--- a/stats/bryum/mean_measuring_active_yield_moss_monthly.xlsx
+++ b/stats/bryum/mean_measuring_active_yield_moss_monthly.xlsx
@@ -570,10 +570,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00645089285714283</v>
+        <v>0.000449900793650797</v>
       </c>
       <c r="D13" t="n">
-        <v>0.086</v>
+        <v>0.0633333333333333</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -587,10 +587,10 @@
         <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0152675925925926</v>
+        <v>0.00165555555555555</v>
       </c>
       <c r="D14" t="n">
-        <v>0.129</v>
+        <v>0.0853333333333333</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -604,7 +604,7 @@
         <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>0.209729838709677</v>
+        <v>0.208966397849462</v>
       </c>
       <c r="D15" t="n">
         <v>0.523</v>

--- a/stats/bryum/mean_measuring_active_yield_moss_monthly.xlsx
+++ b/stats/bryum/mean_measuring_active_yield_moss_monthly.xlsx
@@ -570,10 +570,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000449900793650797</v>
+        <v>0.00645089285714283</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0633333333333333</v>
+        <v>0.086</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -587,10 +587,10 @@
         <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00165555555555555</v>
+        <v>0.0152675925925926</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0853333333333333</v>
+        <v>0.129</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -604,7 +604,7 @@
         <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>0.208966397849462</v>
+        <v>0.209729838709677</v>
       </c>
       <c r="D15" t="n">
         <v>0.523</v>
